--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8092" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B0037F8-ED1D-448C-B70E-FB2E37909053}"/>
+  <xr:revisionPtr revIDLastSave="8135" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB60788-1534-46A6-89CB-5EEA7795875D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="2019" sheetId="26" r:id="rId4"/>
     <sheet name="2020" sheetId="27" r:id="rId5"/>
     <sheet name="2021" sheetId="28" r:id="rId6"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId7"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId8"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId9"/>
+    <sheet name="2022" sheetId="31" r:id="rId7"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId8"/>
+    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId9"/>
+    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="334">
   <si>
     <t>ROUND</t>
   </si>
@@ -1034,6 +1035,15 @@
   </si>
   <si>
     <t>2-6 6-2 7-5</t>
+  </si>
+  <si>
+    <t>Daria Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Leylah Fernandez (CANADA)</t>
+  </si>
+  <si>
+    <t>6-3 2-6 6-1</t>
   </si>
 </sst>
 </file>
@@ -1259,19 +1269,17 @@
               <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1290,15 +1298,18 @@
                 <c:pt idx="5">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$7</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1317,12 +1328,15 @@
                 <c:pt idx="5">
                   <c:v>36</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D892-447C-8542-5EA13FB3CC04}"/>
+              <c16:uniqueId val="{00000000-85D0-4D49-9407-29F4C38F36A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1352,10 +1366,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1374,15 +1388,18 @@
                 <c:pt idx="5">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$7</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1401,12 +1418,15 @@
                 <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D892-447C-8542-5EA13FB3CC04}"/>
+              <c16:uniqueId val="{00000001-85D0-4D49-9407-29F4C38F36A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1420,11 +1440,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="841971663"/>
-        <c:axId val="841970415"/>
+        <c:axId val="1577388319"/>
+        <c:axId val="1577397471"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="841971663"/>
+        <c:axId val="1577388319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="841970415"/>
+        <c:crossAx val="1577397471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="841970415"/>
+        <c:axId val="1577397471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="841971663"/>
+        <c:crossAx val="1577388319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,20 +1768,11 @@
               <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Iga Świątek (POLAND)</a:t>
+              <a:t>Iga Świątek (POLAND): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> Winning Percentile Range</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1855,10 +1866,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1877,15 +1888,18 @@
                 <c:pt idx="5">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$7</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -1904,13 +1918,16 @@
                 <c:pt idx="5">
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1FA-4A10-83ED-78B5780209F9}"/>
+              <c16:uniqueId val="{00000000-ADE5-4A20-B150-98B4EAB6F886}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1924,11 +1941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="896713087"/>
-        <c:axId val="896703103"/>
+        <c:axId val="1577387487"/>
+        <c:axId val="1577394975"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="896713087"/>
+        <c:axId val="1577387487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896703103"/>
+        <c:crossAx val="1577394975"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2034,7 +2051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="896703103"/>
+        <c:axId val="1577394975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896713087"/>
+        <c:crossAx val="1577387487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3302,7 +3319,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7CF37A10-DBDF-453F-872C-3570C5355350}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D558106C-CCE7-4AC6-8650-8D830F830744}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3314,27 +3331,28 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FC6FF691-4195-4291-BCC7-0D3223F9AD92}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7C5E0E94-9303-45E0-B665-E7B3D6FB9540}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:pos x="0" y="9525"/>
+    <xdr:ext cx="8582025" cy="5829300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85046BAA-1A0E-4D49-9012-3A0CCA57D998}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512ACA71-2110-4369-92CF-607890EA981F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,13 +3379,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C051FED-A753-46AF-BF5F-0559AE79406F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4667152F-8A23-47F8-8866-5869CB7C0638}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5743,7 +5761,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6095,7 +6113,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
@@ -6947,14 +6965,123 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC81EE-212F-4560-AF03-51F105BAA003}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7088,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F7" si="0">(D6-E6)/D6</f>
+        <f t="shared" ref="F6:F8" si="0">(D6-E6)/D6</f>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -7114,57 +7241,78 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <f>SUM(B2:B7)</f>
-        <v>55</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUM(C2:C7)</f>
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
-        <f>SUM(D2:D7)</f>
-        <v>144</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM(E2:E7)</f>
-        <v>46</v>
-      </c>
-      <c r="F8" s="7">
-        <f>(D8-E8)/D8</f>
-        <v>0.68055555555555558</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <f>AVERAGE(B2:B7)</f>
-        <v>9.1666666666666661</v>
+        <f>SUM(B2:B8)</f>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:E9" si="1">AVERAGE(C2:C7)</f>
-        <v>0.5</v>
+        <f>SUM(C2:C8)</f>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>SUM(D2:D8)</f>
+        <v>147</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>7.666666666666667</v>
+        <f>SUM(E2:E8)</f>
+        <v>47</v>
       </c>
       <c r="F9" s="7">
         <f>(D9-E9)/D9</f>
-        <v>0.68055555555555547</v>
+        <v>0.68027210884353739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="2">
+        <f>AVERAGE(B2:B8)</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <f>AVERAGE(C2:C8)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D10" s="2">
+        <f>AVERAGE(D2:D8)</f>
+        <v>21</v>
+      </c>
+      <c r="E10" s="2">
+        <f>AVERAGE(E2:E8)</f>
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="F10" s="7">
+        <f>(D10-E10)/D10</f>
+        <v>0.68027210884353739</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F7">
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8135" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB60788-1534-46A6-89CB-5EEA7795875D}"/>
+  <xr:revisionPtr revIDLastSave="8178" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9558DF3D-FFA7-4F0E-9DE9-15065E3FCBB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="340">
   <si>
     <t>ROUND</t>
   </si>
@@ -959,9 +959,6 @@
     <t>WALKOVER</t>
   </si>
   <si>
-    <t>Paula Badosa Gibert (SPAIN)</t>
-  </si>
-  <si>
     <t>6-3 7-6(4)</t>
   </si>
   <si>
@@ -1037,13 +1034,34 @@
     <t>2-6 6-2 7-5</t>
   </si>
   <si>
-    <t>Daria Saville (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Leylah Fernandez (CANADA)</t>
   </si>
   <si>
     <t>6-3 2-6 6-1</t>
+  </si>
+  <si>
+    <t>Harriet Dart (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>Sorana Cîrstea (ROMANIA)</t>
+  </si>
+  <si>
+    <t>5-7 6-3 6-3</t>
+  </si>
+  <si>
+    <t>Kaia Kanepi (ESTONIA)</t>
+  </si>
+  <si>
+    <t>4-6 7-6(2) 6-3</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1347,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,7 +1437,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,7 +1937,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3345,8 +3363,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="9525"/>
-    <xdr:ext cx="8582025" cy="5829300"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4933,7 +4951,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5093,7 +5111,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -5172,7 +5190,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -5576,7 +5594,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -5652,7 +5670,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -5859,7 +5877,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -5910,7 +5928,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -6035,7 +6053,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6113,8 +6131,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6722,18 +6740,18 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -6762,7 +6780,7 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -6776,13 +6794,13 @@
         <v>42</v>
       </c>
       <c r="D53" t="s">
+        <v>312</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
         <v>313</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6796,7 +6814,7 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6804,18 +6822,18 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -6824,7 +6842,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -6838,13 +6856,13 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
+        <v>320</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>321</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6863,7 +6881,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -6872,7 +6890,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -6886,7 +6904,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -6911,13 +6929,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D65" t="s">
         <v>293</v>
@@ -6931,24 +6949,24 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" t="s">
         <v>328</v>
-      </c>
-      <c r="D66" t="s">
-        <v>329</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D67" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -6969,20 +6987,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7016,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -7030,7 +7048,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7050,7 +7068,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7064,7 +7082,97 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7081,7 +7189,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7099,10 +7207,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -7245,20 +7353,20 @@
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7267,7 +7375,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -7275,24 +7383,24 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7">
         <f>(D9-E9)/D9</f>
-        <v>0.68027210884353739</v>
+        <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>8</v>
+        <v>8.1428571428571423</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
@@ -7300,15 +7408,15 @@
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>21</v>
+        <v>21.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>6.7142857142857144</v>
+        <v>6.8571428571428568</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.68027210884353739</v>
+        <v>0.68421052631578949</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8178" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9558DF3D-FFA7-4F0E-9DE9-15065E3FCBB8}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{406289F1-446C-49E2-BC3C-B5103F841C8F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="358">
   <si>
     <t>ROUND</t>
   </si>
@@ -431,9 +431,6 @@
     <t>6-2 6-1</t>
   </si>
   <si>
-    <t>6- 0 6-0</t>
-  </si>
-  <si>
     <t>Vivian Toma (BRAZIL)</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>ITF CHARLESTON ($80,000)</t>
   </si>
   <si>
-    <t>Irina Falconi(8)USAUSA</t>
-  </si>
-  <si>
     <t>Brynn Boren (USA)</t>
   </si>
   <si>
@@ -1062,6 +1056,66 @@
   </si>
   <si>
     <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 7-6(4)</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-2</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>5-7 6-0 6-1</t>
+  </si>
+  <si>
+    <t>Clara Tauson (DENMARK)</t>
+  </si>
+  <si>
+    <t>6-7(3) 6-2 6-1</t>
+  </si>
+  <si>
+    <t>Angelique Kerber (GERMANY)</t>
+  </si>
+  <si>
+    <t>4-6 6-2 6-3</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-4</t>
+  </si>
+  <si>
+    <t>Petra Kvitová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>Irina Falconi (USA)</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN KING CUP</t>
+  </si>
+  <si>
+    <t>Mihaela Buzărnescu (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Andreea Prisăcariu (ROMANIA)</t>
+  </si>
+  <si>
+    <t>STUTTGART OPEN</t>
+  </si>
+  <si>
+    <t>Eva Lys (GERMANY)</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Liudmilla Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-7(4) 6-4 7-5</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1401,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,7 +1491,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,7 +1991,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.90625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3849,7 +3903,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4245,8 +4299,8 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4428,13 +4482,13 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4442,13 +4496,13 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -4457,7 +4511,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4472,7 +4526,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -4497,7 +4551,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -4506,7 +4560,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -4520,7 +4574,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -4534,13 +4588,13 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4548,13 +4602,13 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,7 +4616,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -4576,13 +4630,13 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4590,7 +4644,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -4604,7 +4658,7 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -4615,7 +4669,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -4624,7 +4678,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -4638,13 +4692,13 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
         <v>147</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4652,13 +4706,13 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
         <v>149</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4666,18 +4720,18 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -4686,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -4700,7 +4754,7 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -4714,7 +4768,7 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -4728,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -4742,7 +4796,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -4756,7 +4810,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -4781,7 +4835,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -4790,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -4804,7 +4858,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -4818,7 +4872,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -4838,7 +4892,7 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,18 +4906,18 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -4872,13 +4926,13 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
@@ -4886,7 +4940,7 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -4900,13 +4954,13 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
@@ -4914,7 +4968,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -4928,7 +4982,7 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -4951,8 +5005,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,7 +5050,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -5010,13 +5064,13 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5024,13 +5078,13 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,13 +5098,13 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5058,13 +5112,13 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5072,13 +5126,13 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>180</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,7 +5140,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -5100,7 +5154,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -5111,24 +5165,24 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -5137,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5151,7 +5205,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -5165,13 +5219,13 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5179,18 +5233,18 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -5199,13 +5253,13 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5213,13 +5267,13 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,18 +5301,18 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -5267,13 +5321,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5281,7 +5335,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5295,13 +5349,13 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5309,7 +5363,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -5323,18 +5377,18 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -5343,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -5357,7 +5411,7 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -5371,13 +5425,13 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5385,7 +5439,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -5405,13 +5459,13 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5425,7 +5479,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5433,13 +5487,13 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5458,22 +5512,22 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
       <c r="D41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
         <v>217</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5481,13 +5535,13 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>218</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5495,13 +5549,13 @@
         <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5509,7 +5563,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -5520,47 +5574,47 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s">
         <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -5569,13 +5623,13 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5583,18 +5637,18 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -5603,13 +5657,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -5617,7 +5671,7 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -5631,13 +5685,13 @@
         <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5651,7 +5705,7 @@
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,12 +5719,12 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -5679,13 +5733,13 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5693,7 +5747,7 @@
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -5707,13 +5761,13 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5721,13 +5775,13 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5741,7 +5795,7 @@
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -5755,13 +5809,13 @@
         <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5778,8 +5832,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5838,7 +5892,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -5852,13 +5906,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5866,35 +5920,35 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -5903,13 +5957,13 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5917,7 +5971,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -5928,7 +5982,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -5937,7 +5991,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -5957,7 +6011,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5971,13 +6025,13 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
         <v>257</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,7 +6039,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -5996,7 +6050,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -6011,7 +6065,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,7 +6079,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -6045,7 +6099,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6053,7 +6107,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6095,7 +6149,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -6131,7 +6185,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -6167,7 +6221,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6176,13 +6230,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6190,7 +6244,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -6224,7 +6278,7 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -6238,7 +6292,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -6258,12 +6312,12 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -6278,7 +6332,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6286,7 +6340,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -6300,13 +6354,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6314,7 +6368,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -6328,7 +6382,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6339,7 +6393,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -6348,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -6368,7 +6422,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,7 +6436,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -6396,18 +6450,18 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -6416,7 +6470,7 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6450,12 +6504,12 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -6464,13 +6518,13 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
         <v>283</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6478,7 +6532,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -6492,13 +6546,13 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6520,13 +6574,13 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6540,7 +6594,7 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6554,7 +6608,7 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6568,7 +6622,7 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -6582,13 +6636,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6596,13 +6650,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6610,33 +6664,33 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6644,21 +6698,21 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
@@ -6670,7 +6724,7 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6678,7 +6732,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -6692,7 +6746,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -6706,18 +6760,18 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -6726,7 +6780,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -6740,18 +6794,18 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -6760,7 +6814,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -6780,13 +6834,13 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6794,13 +6848,13 @@
         <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6808,13 +6862,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6822,18 +6876,18 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -6842,13 +6896,13 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6856,13 +6910,13 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6870,18 +6924,18 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -6890,7 +6944,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -6904,7 +6958,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -6918,7 +6972,7 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -6929,16 +6983,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -6949,30 +7003,30 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D67" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6987,10 +7041,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6998,7 +7052,7 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7025,7 +7079,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -7034,7 +7088,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -7048,7 +7102,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7062,13 +7116,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7096,13 +7150,13 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7110,7 +7164,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7124,7 +7178,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -7138,13 +7192,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7152,13 +7206,13 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7166,13 +7220,401 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>350</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>352</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>356</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7189,7 +7631,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7207,10 +7649,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -7353,20 +7795,20 @@
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7375,48 +7817,48 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7">
         <f>(D9-E9)/D9</f>
-        <v>0.68421052631578949</v>
+        <v>0.72159090909090906</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>8.1428571428571423</v>
+        <v>9.1428571428571423</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>21.714285714285715</v>
+        <v>25.142857142857142</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>6.8571428571428568</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.68421052631578949</v>
+        <v>0.72159090909090906</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{406289F1-446C-49E2-BC3C-B5103F841C8F}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF5E689-5CFF-4C46-8D02-F00EB114B5D0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="358">
   <si>
     <t>ROUND</t>
   </si>
@@ -7041,10 +7041,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7609,14 +7609,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>280</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -7631,7 +7623,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7795,7 +7787,7 @@
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -7817,7 +7809,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
@@ -7842,7 +7834,7 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>9.1428571428571423</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF5E689-5CFF-4C46-8D02-F00EB114B5D0}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F390DAC-98E5-4512-81F3-B7238721D5C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="366">
   <si>
     <t>ROUND</t>
   </si>
@@ -1116,6 +1116,30 @@
   </si>
   <si>
     <t>6-7(4) 6-4 7-5</t>
+  </si>
+  <si>
+    <t>Elena-Gabriela Ruse (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Bianca Andreescu (CANADA)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-0</t>
+  </si>
+  <si>
+    <t>Lesia Tsurenko (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Danka Kovinić (MONTENEGRO)</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-0 6-2</t>
+  </si>
+  <si>
+    <t>Jana Fett (CROATIA)</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1425,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +2015,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90625</c:v>
+                  <c:v>0.93181818181818177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6185,8 +6209,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,10 +7065,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7052,7 +7076,7 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7607,6 +7631,200 @@
       </c>
       <c r="F43" s="6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>358</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>359</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>281</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>348</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7622,8 +7840,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7787,20 +8005,20 @@
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.90625</v>
+        <v>0.93181818181818177</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7809,15 +8027,15 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
@@ -7825,7 +8043,7 @@
       </c>
       <c r="F9" s="7">
         <f>(D9-E9)/D9</f>
-        <v>0.72159090909090906</v>
+        <v>0.73936170212765961</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7834,15 +8052,15 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>9</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>1</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>25.142857142857142</v>
+        <v>26.857142857142858</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
@@ -7850,7 +8068,7 @@
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.72159090909090906</v>
+        <v>0.73936170212765961</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F390DAC-98E5-4512-81F3-B7238721D5C8}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F30DE8-D9E4-4139-9B59-680AEEC96E96}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="384">
   <si>
     <t>ROUND</t>
   </si>
@@ -1140,6 +1140,60 @@
   </si>
   <si>
     <t>Jana Fett (CROATIA)</t>
+  </si>
+  <si>
+    <t>Lesley Pattinama Kerkhove (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>6-4 4-6 6-3</t>
+  </si>
+  <si>
+    <t>Alizé Cornet (FRANCE)</t>
+  </si>
+  <si>
+    <t>POLAND OPEN</t>
+  </si>
+  <si>
+    <t>Magdalena Fręch (POLAND)</t>
+  </si>
+  <si>
+    <t>Gabriela Lee (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Caroline Garcia (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-1 1-6 6-4</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 7-5</t>
+  </si>
+  <si>
+    <t>Sloane Stephens (USA)</t>
+  </si>
+  <si>
+    <t>Jasmine Paolini (ITALY)</t>
+  </si>
+  <si>
+    <t>Lauren Davis (USA)</t>
+  </si>
+  <si>
+    <t>Jule Niemeier (GERMANY)</t>
+  </si>
+  <si>
+    <t>Quaterfinal</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-0</t>
+  </si>
+  <si>
+    <t>6-2 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1425,7 +1479,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,7 +1569,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,7 +2069,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93181818181818177</c:v>
+                  <c:v>0.8771929824561403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5029,8 +5083,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5857,7 +5911,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6209,8 +6263,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7065,10 +7119,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" activeCellId="6" sqref="E5 E12 E15 E61 E65 E68 E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7076,7 +7130,7 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7825,6 +7879,260 @@
       </c>
       <c r="D59" t="s">
         <v>365</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>366</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>370</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>371</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>306</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>377</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>378</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" t="s">
+        <v>377</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>379</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>380</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>381</v>
+      </c>
+      <c r="D77" t="s">
+        <v>348</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>326</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>296</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -7840,8 +8148,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8005,20 +8313,20 @@
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.93181818181818177</v>
+        <v>0.8771929824561403</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8027,23 +8335,23 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7">
         <f>(D9-E9)/D9</f>
-        <v>0.73936170212765961</v>
+        <v>0.73631840796019898</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8052,23 +8360,23 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>9.2857142857142865</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>1.2857142857142858</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>26.857142857142858</v>
+        <v>28.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>7</v>
+        <v>7.5714285714285712</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.73936170212765961</v>
+        <v>0.7363184079601991</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F30DE8-D9E4-4139-9B59-680AEEC96E96}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B1CD91-E476-4768-B29F-807566D4964E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="2021" sheetId="28" r:id="rId6"/>
     <sheet name="2022" sheetId="31" r:id="rId7"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId8"/>
-    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId9"/>
+    <sheet name="Wins-Losses" sheetId="32" r:id="rId9"/>
     <sheet name="Winning Percentile Range" sheetId="33" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="392">
   <si>
     <t>ROUND</t>
   </si>
@@ -1194,6 +1194,30 @@
   </si>
   <si>
     <t>6-2 7-6(5)</t>
+  </si>
+  <si>
+    <t>7-5 2-2 RETIRED</t>
+  </si>
+  <si>
+    <t>7-6(5) 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Caty McNally (USA)</t>
+  </si>
+  <si>
+    <t>5-7 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>6-4 4-6 6-1</t>
+  </si>
+  <si>
+    <t>4-6 6-2 6-2</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-0</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1380,7 @@
               <a:rPr lang="en-US" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> (POLAND): YTD Wins-Losses</a:t>
+              <a:t> (POLAND): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1" i="0">
               <a:effectLst/>
@@ -1479,7 +1503,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,7 +1593,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,7 +2034,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2069,7 +2092,7 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8771929824561403</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3472,7 +3495,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D558106C-CCE7-4AC6-8650-8D830F830744}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3556,6 +3579,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7119,10 +7146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" activeCellId="6" sqref="E5 E12 E15 E61 E65 E68 E71"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7132,7 +7159,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8133,6 +8160,186 @@
       </c>
       <c r="F79" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82" t="s">
+        <v>386</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>277</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>388</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>363</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>381</v>
+      </c>
+      <c r="D87" t="s">
+        <v>286</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>348</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>325</v>
+      </c>
+      <c r="D93" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -8148,8 +8355,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8313,20 +8520,20 @@
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.8771929824561403</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8335,23 +8542,23 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7">
         <f>(D9-E9)/D9</f>
-        <v>0.73631840796019898</v>
+        <v>0.74038461538461542</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8360,23 +8567,23 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>10</v>
+        <v>10.285714285714286</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>1.4285714285714286</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>28.714285714285715</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>7.5714285714285712</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.7363184079601991</v>
+        <v>0.74038461538461531</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B1CD91-E476-4768-B29F-807566D4964E}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E63B2E7A-49FD-46D0-8FAB-0D206856406C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="2020" sheetId="27" r:id="rId5"/>
     <sheet name="2021" sheetId="28" r:id="rId6"/>
     <sheet name="2022" sheetId="31" r:id="rId7"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId8"/>
-    <sheet name="Wins-Losses" sheetId="32" r:id="rId9"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId10"/>
+    <sheet name="2023" sheetId="34" r:id="rId8"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId9"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId10"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="396">
   <si>
     <t>ROUND</t>
   </si>
@@ -1218,6 +1219,18 @@
   </si>
   <si>
     <t>6-3 3-6 6-0</t>
+  </si>
+  <si>
+    <t>6-2 2-6 6-1</t>
+  </si>
+  <si>
+    <t>Camila Osorio (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>Cristina Bucsa (SPAIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-4 7-5 </t>
   </si>
 </sst>
 </file>
@@ -1374,13 +1387,13 @@
               <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Iga Świątek</a:t>
+              <a:t>Iga Świątek (POLAND):</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> (POLAND): Wins-Losses</a:t>
+              <a:t> Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1" i="0">
               <a:effectLst/>
@@ -1450,10 +1463,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1475,15 +1488,18 @@
                 <c:pt idx="6">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$8</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1503,14 +1519,17 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-85D0-4D49-9407-29F4C38F36A3}"/>
+              <c16:uniqueId val="{00000000-976D-48F0-AD29-333CC7BF5776}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1540,10 +1559,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1565,15 +1584,18 @@
                 <c:pt idx="6">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$8</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1593,14 +1615,17 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-85D0-4D49-9407-29F4C38F36A3}"/>
+              <c16:uniqueId val="{00000001-976D-48F0-AD29-333CC7BF5776}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1614,11 +1639,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1577388319"/>
-        <c:axId val="1577397471"/>
+        <c:axId val="1342305455"/>
+        <c:axId val="1342309199"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1577388319"/>
+        <c:axId val="1342305455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577397471"/>
+        <c:crossAx val="1342309199"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1577397471"/>
+        <c:axId val="1342309199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +1855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577388319"/>
+        <c:crossAx val="1342305455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2039,10 +2064,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -2064,15 +2089,18 @@
                 <c:pt idx="6">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$8</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -2092,7 +2120,10 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.875</c:v>
+                  <c:v>0.86567164179104472</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,7 +2131,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADE5-4A20-B150-98B4EAB6F886}"/>
+              <c16:uniqueId val="{00000000-C9FD-4C42-AEF5-578E627E8092}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2114,11 +2145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1577387487"/>
-        <c:axId val="1577394975"/>
+        <c:axId val="1336548527"/>
+        <c:axId val="1336548111"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1577387487"/>
+        <c:axId val="1336548527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577394975"/>
+        <c:crossAx val="1336548111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2224,7 +2255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1577394975"/>
+        <c:axId val="1336548111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577387487"/>
+        <c:crossAx val="1336548527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3492,26 +3523,24 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D558106C-CCE7-4AC6-8650-8D830F830744}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{369861EB-D729-4817-9BFF-CBADC9E948E1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7C5E0E94-9303-45E0-B665-E7B3D6FB9540}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76A527C7-82A5-42D9-933E-047D9B01B978}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -3519,13 +3548,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512ACA71-2110-4369-92CF-607890EA981F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FF5486-DF9C-8634-4D46-6FA499777EBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,13 +3581,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4667152F-8A23-47F8-8866-5869CB7C0638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382B60A9-3836-3AEC-EE9C-F429AFA92C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3891,17 +3920,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3921,7 +3950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3941,7 +3970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3955,7 +3984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -3969,7 +3998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -3983,7 +4012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -3997,7 +4026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4011,7 +4040,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4025,7 +4054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -4045,7 +4074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>21</v>
       </c>
@@ -4059,7 +4088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -4073,7 +4102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -4087,7 +4116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -4101,7 +4130,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -4139,17 +4168,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4169,7 +4198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -4189,7 +4218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -4203,7 +4232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -4217,7 +4246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4231,7 +4260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4245,7 +4274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4259,7 +4288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4273,7 +4302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -4293,7 +4322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -4313,7 +4342,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -4327,7 +4356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -4341,7 +4370,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -4355,7 +4384,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -4370,7 +4399,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4408,17 +4437,17 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4438,7 +4467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4458,7 +4487,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4472,7 +4501,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4486,7 +4515,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>110</v>
       </c>
@@ -4500,7 +4529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4514,7 +4543,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4534,7 +4563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4548,7 +4577,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -4562,7 +4591,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>110</v>
       </c>
@@ -4576,7 +4605,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4596,7 +4625,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -4611,7 +4640,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>39</v>
       </c>
@@ -4626,7 +4655,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -4640,7 +4669,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -4654,7 +4683,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -4674,7 +4703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -4688,7 +4717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -4702,7 +4731,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4716,7 +4745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4730,7 +4759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4744,7 +4773,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4758,7 +4787,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -4772,7 +4801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -4792,7 +4821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>21</v>
       </c>
@@ -4806,7 +4835,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>39</v>
       </c>
@@ -4820,7 +4849,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -4834,7 +4863,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -4854,7 +4883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -4868,7 +4897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -4882,7 +4911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -4896,7 +4925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -4910,7 +4939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -4924,7 +4953,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -4938,7 +4967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -4958,7 +4987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -4972,7 +5001,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -4986,7 +5015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>16</v>
       </c>
@@ -5000,7 +5029,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -5020,7 +5049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -5040,7 +5069,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -5054,7 +5083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -5068,7 +5097,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -5082,7 +5111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -5114,17 +5143,17 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5144,7 +5173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -5164,7 +5193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -5178,7 +5207,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -5192,7 +5221,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5212,7 +5241,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -5226,7 +5255,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -5240,7 +5269,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -5254,7 +5283,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -5268,7 +5297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>323</v>
       </c>
@@ -5285,7 +5314,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -5305,7 +5334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -5319,7 +5348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -5333,7 +5362,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -5347,7 +5376,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>322</v>
       </c>
@@ -5367,7 +5396,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -5381,7 +5410,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -5401,7 +5430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -5415,7 +5444,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -5435,7 +5464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -5449,7 +5478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5463,7 +5492,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -5477,7 +5506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -5491,7 +5520,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -5511,7 +5540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -5525,7 +5554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>39</v>
       </c>
@@ -5539,7 +5568,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -5553,7 +5582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -5573,7 +5602,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -5587,7 +5616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -5601,7 +5630,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5615,7 +5644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -5635,7 +5664,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -5649,7 +5678,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>39</v>
       </c>
@@ -5663,7 +5692,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -5677,7 +5706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -5697,7 +5726,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>221</v>
       </c>
@@ -5717,7 +5746,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -5737,7 +5766,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5751,7 +5780,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>304</v>
       </c>
@@ -5771,7 +5800,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -5785,7 +5814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>42</v>
       </c>
@@ -5799,7 +5828,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -5813,7 +5842,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -5827,7 +5856,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>306</v>
       </c>
@@ -5847,7 +5876,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -5861,7 +5890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>42</v>
       </c>
@@ -5875,7 +5904,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -5889,7 +5918,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -5909,7 +5938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>42</v>
       </c>
@@ -5941,18 +5970,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5972,7 +6001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5992,7 +6021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -6006,7 +6035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -6020,7 +6049,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -6034,7 +6063,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>323</v>
       </c>
@@ -6051,7 +6080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -6071,7 +6100,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6085,7 +6114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>306</v>
       </c>
@@ -6105,7 +6134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -6125,7 +6154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>42</v>
       </c>
@@ -6139,7 +6168,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6153,7 +6182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -6173,7 +6202,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -6193,7 +6222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>42</v>
       </c>
@@ -6207,7 +6236,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -6221,7 +6250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -6235,7 +6264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -6249,7 +6278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -6263,7 +6292,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -6294,17 +6323,17 @@
       <selection activeCell="A50" sqref="A50:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6324,7 +6353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -6344,7 +6373,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6358,7 +6387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6378,7 +6407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>42</v>
       </c>
@@ -6392,7 +6421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6406,7 +6435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6420,7 +6449,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>269</v>
       </c>
@@ -6440,7 +6469,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6454,7 +6483,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -6468,7 +6497,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -6482,7 +6511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -6496,7 +6525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -6516,7 +6545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6530,7 +6559,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -6550,7 +6579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6564,7 +6593,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>280</v>
       </c>
@@ -6584,7 +6613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6598,7 +6627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6612,7 +6641,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>258</v>
       </c>
@@ -6632,7 +6661,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -6646,7 +6675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -6660,7 +6689,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -6674,7 +6703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -6688,7 +6717,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -6702,7 +6731,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6722,7 +6751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -6736,7 +6765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -6750,7 +6779,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -6764,7 +6793,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6778,7 +6807,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -6798,7 +6827,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6812,7 +6841,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -6832,7 +6861,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>42</v>
       </c>
@@ -6846,7 +6875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -6860,7 +6889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6874,7 +6903,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>300</v>
       </c>
@@ -6894,7 +6923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -6908,7 +6937,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>306</v>
       </c>
@@ -6928,7 +6957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6948,7 +6977,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>42</v>
       </c>
@@ -6962,7 +6991,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -6976,7 +7005,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -6990,7 +7019,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -7010,7 +7039,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7053,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7067,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>322</v>
       </c>
@@ -7058,7 +7087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -7072,7 +7101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>11</v>
       </c>
@@ -7086,7 +7115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>324</v>
       </c>
@@ -7106,7 +7135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>325</v>
       </c>
@@ -7120,7 +7149,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>325</v>
       </c>
@@ -7148,21 +7177,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7182,7 +7211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -7202,7 +7231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7216,7 +7245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7230,7 +7259,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7244,7 +7273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -7264,7 +7293,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7278,7 +7307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -7292,7 +7321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -7306,7 +7335,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -7320,7 +7349,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -7334,7 +7363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>275</v>
       </c>
@@ -7354,7 +7383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -7368,7 +7397,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -7388,7 +7417,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7402,7 +7431,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7416,7 +7445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7430,7 +7459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7444,7 +7473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -7464,7 +7493,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -7478,7 +7507,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -7492,7 +7521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -7506,7 +7535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -7520,7 +7549,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -7534,7 +7563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -7554,7 +7583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -7568,7 +7597,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7582,7 +7611,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7596,7 +7625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>16</v>
       </c>
@@ -7610,7 +7639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>17</v>
       </c>
@@ -7624,7 +7653,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>350</v>
       </c>
@@ -7641,7 +7670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>352</v>
       </c>
@@ -7652,7 +7681,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>353</v>
       </c>
@@ -7672,7 +7701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -7686,7 +7715,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
@@ -7700,7 +7729,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>17</v>
       </c>
@@ -7714,7 +7743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>258</v>
       </c>
@@ -7734,7 +7763,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -7748,7 +7777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -7762,7 +7791,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -7776,7 +7805,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -7790,7 +7819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -7810,7 +7839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -7824,7 +7853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -7838,7 +7867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -7852,7 +7881,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -7866,7 +7895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -7880,7 +7909,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -7894,7 +7923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>221</v>
       </c>
@@ -7914,7 +7943,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>42</v>
       </c>
@@ -7928,7 +7957,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -7942,7 +7971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>369</v>
       </c>
@@ -7962,7 +7991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
@@ -7976,7 +8005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7990,7 +8019,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>374</v>
       </c>
@@ -8010,7 +8039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -8024,7 +8053,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>306</v>
       </c>
@@ -8044,7 +8073,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -8058,7 +8087,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -8078,7 +8107,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>42</v>
       </c>
@@ -8092,7 +8121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>12</v>
       </c>
@@ -8106,7 +8135,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -8120,7 +8149,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>381</v>
       </c>
@@ -8134,7 +8163,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>16</v>
       </c>
@@ -8148,7 +8177,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>17</v>
       </c>
@@ -8162,7 +8191,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>316</v>
       </c>
@@ -8182,7 +8211,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>381</v>
       </c>
@@ -8196,7 +8225,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8210,7 +8239,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>17</v>
       </c>
@@ -8224,7 +8253,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -8244,7 +8273,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>381</v>
       </c>
@@ -8258,7 +8287,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>16</v>
       </c>
@@ -8272,7 +8301,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>17</v>
       </c>
@@ -8286,7 +8315,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -8306,7 +8335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>325</v>
       </c>
@@ -8320,7 +8349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>325</v>
       </c>
@@ -8334,12 +8363,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>16</v>
       </c>
       <c r="D94" t="s">
         <v>326</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -8349,27 +8384,136 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B40AAC-2E07-4DF6-83AD-2FFAD7E9B2A9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8389,7 +8533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -8410,7 +8554,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -8431,7 +8575,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -8452,7 +8596,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -8473,7 +8617,7 @@
         <v>0.51515151515151514</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -8490,11 +8634,11 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F8" si="0">(D6-E6)/D6</f>
+        <f t="shared" ref="F6:F9" si="0">(D6-E6)/D6</f>
         <v>0.70588235294117652</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -8515,79 +8659,100 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>0.86567164179104472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <f>SUM(B2:B8)</f>
-        <v>72</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(C2:C8)</f>
+      <c r="B10" s="2">
+        <f>SUM(B2:B9)</f>
+        <v>74</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(C2:C9)</f>
         <v>11</v>
       </c>
-      <c r="D9" s="2">
-        <f>SUM(D2:D8)</f>
-        <v>208</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SUM(E2:E8)</f>
-        <v>54</v>
-      </c>
-      <c r="F9" s="7">
-        <f>(D9-E9)/D9</f>
-        <v>0.74038461538461542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="2">
-        <f>AVERAGE(B2:B8)</f>
-        <v>10.285714285714286</v>
-      </c>
-      <c r="C10" s="2">
-        <f>AVERAGE(C2:C8)</f>
-        <v>1.5714285714285714</v>
-      </c>
       <c r="D10" s="2">
-        <f>AVERAGE(D2:D8)</f>
-        <v>29.714285714285715</v>
+        <f>SUM(D2:D9)</f>
+        <v>214</v>
       </c>
       <c r="E10" s="2">
-        <f>AVERAGE(E2:E8)</f>
-        <v>7.7142857142857144</v>
+        <f>SUM(E2:E9)</f>
+        <v>56</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.74038461538461531</v>
+        <v>0.73831775700934577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="2">
+        <f>AVERAGE(B2:B9)</f>
+        <v>9.25</v>
+      </c>
+      <c r="C11" s="2">
+        <f>AVERAGE(C2:C9)</f>
+        <v>1.375</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(D2:D9)</f>
+        <v>26.75</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE(E2:E9)</f>
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(D11-E11)/D11</f>
+        <v>0.73831775700934577</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E63B2E7A-49FD-46D0-8FAB-0D206856406C}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABDFC406-2040-4CAD-8F0F-79454D183645}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="397">
   <si>
     <t>ROUND</t>
   </si>
@@ -1113,9 +1113,6 @@
     <t>Emma Raducanu (GREAT BRITAIN)</t>
   </si>
   <si>
-    <t>Liudmilla Samsonova (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-7(4) 6-4 7-5</t>
   </si>
   <si>
@@ -1231,6 +1228,12 @@
   </si>
   <si>
     <t xml:space="preserve">6-4 7-5 </t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1525,7 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,7 +1621,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,7 +2126,7 @@
                   <c:v>0.86567164179104472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,8 +6322,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:C50"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7177,8 +7180,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7720,13 +7723,13 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
+        <v>396</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>356</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7754,7 +7757,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -7782,13 +7785,13 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
+        <v>358</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>359</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7830,7 +7833,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -7858,7 +7861,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -7872,13 +7875,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
         <v>363</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7934,7 +7937,7 @@
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -7948,13 +7951,13 @@
         <v>42</v>
       </c>
       <c r="D60" t="s">
+        <v>365</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>366</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7962,7 +7965,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -7973,7 +7976,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -7982,7 +7985,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -7996,7 +7999,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -8010,18 +8013,18 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -8044,13 +8047,13 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8064,7 +8067,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -8098,7 +8101,7 @@
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -8112,7 +8115,7 @@
         <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -8126,7 +8129,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -8140,18 +8143,18 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D77" t="s">
         <v>348</v>
@@ -8188,7 +8191,7 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8208,15 +8211,15 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -8236,7 +8239,7 @@
         <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8250,12 +8253,12 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -8264,18 +8267,18 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D87" t="s">
         <v>286</v>
@@ -8298,7 +8301,7 @@
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8312,7 +8315,7 @@
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8340,7 +8343,7 @@
         <v>325</v>
       </c>
       <c r="D92" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
@@ -8374,7 +8377,7 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -8388,20 +8391,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" activeCellId="4" sqref="E2:E4 E7 E9:E10 E12:E13 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8435,13 +8438,13 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8449,7 +8452,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8463,7 +8466,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -8484,6 +8487,144 @@
       </c>
       <c r="F5" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8500,7 +8641,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8685,20 +8826,20 @@
         <v>2023</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8707,23 +8848,23 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.73831775700934577</v>
+        <v>0.74090909090909096</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8732,23 +8873,23 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>26.75</v>
+        <v>27.5</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>7</v>
+        <v>7.125</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.73831775700934577</v>
+        <v>0.74090909090909096</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABDFC406-2040-4CAD-8F0F-79454D183645}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519CD94E-62FD-4C0E-9FD1-EBDB76951F34}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="398">
   <si>
     <t>ROUND</t>
   </si>
@@ -1234,6 +1234,9 @@
   </si>
   <si>
     <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(1)</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,7 +1624,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,7 +2129,7 @@
                   <c:v>0.86567164179104472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7180,8 +7183,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8391,10 +8394,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" activeCellId="4" sqref="E2:E4 E7 E9:E10 E12:E13 E15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8625,6 +8628,82 @@
       </c>
       <c r="F16" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8826,20 +8905,20 @@
         <v>2023</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8848,7 +8927,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B2:B9)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C2:C9)</f>
@@ -8856,15 +8935,15 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E10" s="2">
         <f>SUM(E2:E9)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.74090909090909096</v>
+        <v>0.7410714285714286</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8873,7 +8952,7 @@
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>
-        <v>9.5</v>
+        <v>9.625</v>
       </c>
       <c r="C11" s="2">
         <f>AVERAGE(C2:C9)</f>
@@ -8881,15 +8960,15 @@
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(D2:D9)</f>
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>7.125</v>
+        <v>7.25</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.74090909090909096</v>
+        <v>0.7410714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3616,10 +3616,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8720,7 +8716,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519CD94E-62FD-4C0E-9FD1-EBDB76951F34}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E80901E-6923-4E14-9C7B-CC13570DEA71}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -885,12 +885,6 @@
     <t>6-4 2-6 6-2</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
-    <t>Alison Riske (USA)</t>
-  </si>
-  <si>
     <t>7-5 6-4</t>
   </si>
   <si>
@@ -1237,6 +1231,12 @@
   </si>
   <si>
     <t>6-3 7-6(1)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
   </si>
 </sst>
 </file>
@@ -3919,17 +3919,17 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4039,7 +4039,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4167,17 +4167,17 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4369,7 +4369,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -4436,17 +4436,17 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4946,7 +4946,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -5142,17 +5142,17 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -5969,17 +5969,17 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -6243,7 +6243,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6321,18 +6321,18 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6597,7 +6597,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>396</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -6606,7 +6606,7 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6640,7 +6640,7 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6654,13 +6654,13 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
+        <v>397</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
         <v>281</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6668,7 +6668,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -6688,7 +6688,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6710,7 +6710,7 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -6758,7 +6758,7 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -6772,13 +6772,13 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6786,7 +6786,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -6800,13 +6800,13 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6834,13 +6834,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -6860,7 +6860,7 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6868,7 +6868,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -6882,7 +6882,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -6896,18 +6896,18 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -6916,7 +6916,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -6930,18 +6930,18 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -6950,7 +6950,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -6970,7 +6970,7 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -6984,13 +6984,13 @@
         <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -6998,13 +6998,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7012,18 +7012,18 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -7032,13 +7032,13 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7046,13 +7046,13 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7060,7 +7060,7 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -7080,7 +7080,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -7094,7 +7094,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -7119,16 +7119,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D65" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -7139,30 +7139,30 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7180,17 +7180,17 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7224,7 +7224,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -7238,7 +7238,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7258,7 +7258,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7286,7 +7286,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -7300,7 +7300,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7314,7 +7314,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -7328,13 +7328,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7342,13 +7342,13 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7356,7 +7356,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -7376,7 +7376,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7396,7 +7396,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7416,7 +7416,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7424,7 +7424,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -7438,7 +7438,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -7452,7 +7452,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -7466,7 +7466,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -7486,13 +7486,13 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7500,13 +7500,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7514,13 +7514,13 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7528,7 +7528,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -7548,7 +7548,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7556,7 +7556,7 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -7604,7 +7604,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -7618,7 +7618,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -7632,7 +7632,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -7657,13 +7657,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -7694,7 +7694,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -7708,13 +7708,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7722,13 +7722,13 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7736,7 +7736,7 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -7756,7 +7756,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -7784,13 +7784,13 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7798,7 +7798,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -7812,7 +7812,7 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -7832,7 +7832,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -7846,7 +7846,7 @@
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -7860,7 +7860,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -7874,13 +7874,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7888,7 +7888,7 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -7902,7 +7902,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -7916,7 +7916,7 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -7936,7 +7936,7 @@
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -7950,13 +7950,13 @@
         <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7964,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -7984,7 +7984,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -7998,7 +7998,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -8012,18 +8012,18 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -8046,18 +8046,18 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -8066,7 +8066,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -8080,7 +8080,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -8100,7 +8100,7 @@
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -8114,7 +8114,7 @@
         <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -8128,7 +8128,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -8142,27 +8142,27 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
         <v>379</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D77" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8170,7 +8170,7 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
@@ -8184,18 +8184,18 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -8210,21 +8210,21 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D82" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8238,7 +8238,7 @@
         <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8252,12 +8252,12 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -8266,21 +8266,21 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
@@ -8294,13 +8294,13 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8314,21 +8314,21 @@
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
@@ -8339,10 +8339,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D92" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
@@ -8353,10 +8353,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
@@ -8370,13 +8370,13 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -8393,7 +8393,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8437,13 +8437,13 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8451,7 +8451,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8465,7 +8465,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -8479,18 +8479,18 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -8499,7 +8499,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -8513,13 +8513,13 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8527,7 +8527,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -8541,7 +8541,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -8561,7 +8561,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -8575,7 +8575,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -8595,7 +8595,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8603,7 +8603,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -8651,13 +8651,13 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -8665,7 +8665,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -8679,7 +8679,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -8693,7 +8693,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -8734,10 +8734,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(B2:B9)</f>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Soumya-Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F30DE8-D9E4-4139-9B59-680AEEC96E96}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB86F90-A05F-49DC-9698-B4A98177E68B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="2020" sheetId="27" r:id="rId5"/>
     <sheet name="2021" sheetId="28" r:id="rId6"/>
     <sheet name="2022" sheetId="31" r:id="rId7"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId8"/>
-    <sheet name="YTD Wins-Losses" sheetId="32" r:id="rId9"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId10"/>
+    <sheet name="2023" sheetId="34" r:id="rId8"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId9"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId10"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="404">
   <si>
     <t>ROUND</t>
   </si>
@@ -1112,9 +1113,6 @@
     <t>Emma Raducanu (GREAT BRITAIN)</t>
   </si>
   <si>
-    <t>Liudmilla Samsonova (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-7(4) 6-4 7-5</t>
   </si>
   <si>
@@ -1194,6 +1192,69 @@
   </si>
   <si>
     <t>6-2 7-6(5)</t>
+  </si>
+  <si>
+    <t>7-5 2-2 RETIRED</t>
+  </si>
+  <si>
+    <t>7-6(5) 2-6 6-4</t>
+  </si>
+  <si>
+    <t>Caty McNally (USA)</t>
+  </si>
+  <si>
+    <t>5-7 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>6-4 4-6 6-1</t>
+  </si>
+  <si>
+    <t>4-6 6-2 6-2</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-0</t>
+  </si>
+  <si>
+    <t>6-2 2-6 6-1</t>
+  </si>
+  <si>
+    <t>Camila Osorio (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>Cristina Bucsa (SPAIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-4 7-5 </t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(1)</t>
+  </si>
+  <si>
+    <t>3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>4-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>6-4 6-7(3) 6-3</t>
+  </si>
+  <si>
+    <t>Julia Grabher (AUSTRIA)</t>
+  </si>
+  <si>
+    <t>Bernarda Pera (USA)</t>
   </si>
 </sst>
 </file>
@@ -1350,13 +1411,13 @@
               <a:rPr lang="en-US" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Iga Świątek</a:t>
+              <a:t>Iga Świątek (POLAND):</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> (POLAND): YTD Wins-Losses</a:t>
+              <a:t> Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1" i="0">
               <a:effectLst/>
@@ -1426,10 +1487,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1451,15 +1512,18 @@
                 <c:pt idx="6">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$8</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1479,14 +1543,17 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-85D0-4D49-9407-29F4C38F36A3}"/>
+              <c16:uniqueId val="{00000000-976D-48F0-AD29-333CC7BF5776}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1516,10 +1583,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1541,15 +1608,18 @@
                 <c:pt idx="6">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$8</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1569,14 +1639,17 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-85D0-4D49-9407-29F4C38F36A3}"/>
+              <c16:uniqueId val="{00000001-976D-48F0-AD29-333CC7BF5776}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1590,11 +1663,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1577388319"/>
-        <c:axId val="1577397471"/>
+        <c:axId val="1342305455"/>
+        <c:axId val="1342309199"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1577388319"/>
+        <c:axId val="1342305455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,7 +1765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577397471"/>
+        <c:crossAx val="1342309199"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1700,7 +1773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1577397471"/>
+        <c:axId val="1342309199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577388319"/>
+        <c:crossAx val="1342305455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2010,16 +2083,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$8</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -2041,15 +2113,18 @@
                 <c:pt idx="6">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$8</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -2069,7 +2144,10 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8771929824561403</c:v>
+                  <c:v>0.86567164179104472</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77272727272727271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,7 +2155,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADE5-4A20-B150-98B4EAB6F886}"/>
+              <c16:uniqueId val="{00000000-C9FD-4C42-AEF5-578E627E8092}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2091,11 +2169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1577387487"/>
-        <c:axId val="1577394975"/>
+        <c:axId val="1336548527"/>
+        <c:axId val="1336548111"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1577387487"/>
+        <c:axId val="1336548527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,7 +2271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577394975"/>
+        <c:crossAx val="1336548111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2201,7 +2279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1577394975"/>
+        <c:axId val="1336548111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577387487"/>
+        <c:crossAx val="1336548527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3469,26 +3547,24 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D558106C-CCE7-4AC6-8650-8D830F830744}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{369861EB-D729-4817-9BFF-CBADC9E948E1}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7C5E0E94-9303-45E0-B665-E7B3D6FB9540}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76A527C7-82A5-42D9-933E-047D9B01B978}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -3496,13 +3572,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512ACA71-2110-4369-92CF-607890EA981F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FF5486-DF9C-8634-4D46-6FA499777EBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,13 +3605,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4667152F-8A23-47F8-8866-5869CB7C0638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382B60A9-3836-3AEC-EE9C-F429AFA92C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,6 +3632,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3864,17 +3944,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3894,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3914,7 +3994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -3928,7 +4008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -3942,7 +4022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -3956,7 +4036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -3970,7 +4050,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +4064,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +4078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -4018,7 +4098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>21</v>
       </c>
@@ -4032,7 +4112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -4046,7 +4126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -4060,7 +4140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -4074,7 +4154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -4112,17 +4192,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -4162,7 +4242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -4176,7 +4256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -4190,7 +4270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4204,7 +4284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4218,7 +4298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4232,7 +4312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4246,7 +4326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -4266,7 +4346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -4286,7 +4366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -4300,7 +4380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -4314,7 +4394,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -4328,7 +4408,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -4343,7 +4423,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4381,17 +4461,17 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4411,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4431,7 +4511,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4445,7 +4525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4459,7 +4539,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>110</v>
       </c>
@@ -4473,7 +4553,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4487,7 +4567,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4507,7 +4587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4521,7 +4601,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -4535,7 +4615,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>110</v>
       </c>
@@ -4549,7 +4629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4569,7 +4649,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -4584,7 +4664,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>39</v>
       </c>
@@ -4599,7 +4679,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -4613,7 +4693,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -4627,7 +4707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -4647,7 +4727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -4661,7 +4741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -4675,7 +4755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4689,7 +4769,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4703,7 +4783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4717,7 +4797,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4731,7 +4811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -4745,7 +4825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -4765,7 +4845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>21</v>
       </c>
@@ -4779,7 +4859,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>39</v>
       </c>
@@ -4793,7 +4873,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -4807,7 +4887,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -4827,7 +4907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -4841,7 +4921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -4855,7 +4935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -4869,7 +4949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -4883,7 +4963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -4897,7 +4977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -4911,7 +4991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -4931,7 +5011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -4945,7 +5025,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -4959,7 +5039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>16</v>
       </c>
@@ -4973,7 +5053,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -4993,7 +5073,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -5013,7 +5093,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -5027,7 +5107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -5041,7 +5121,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -5055,7 +5135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -5087,17 +5167,17 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5117,7 +5197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -5137,7 +5217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -5151,7 +5231,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -5165,7 +5245,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5185,7 +5265,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -5199,7 +5279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -5213,7 +5293,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -5227,7 +5307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -5241,7 +5321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>323</v>
       </c>
@@ -5258,7 +5338,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -5278,7 +5358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -5292,7 +5372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -5306,7 +5386,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -5320,7 +5400,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>322</v>
       </c>
@@ -5340,7 +5420,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -5354,7 +5434,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -5374,7 +5454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -5388,7 +5468,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -5408,7 +5488,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -5422,7 +5502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5436,7 +5516,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -5450,7 +5530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -5464,7 +5544,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -5484,7 +5564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -5498,7 +5578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>39</v>
       </c>
@@ -5512,7 +5592,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -5526,7 +5606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -5546,7 +5626,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -5560,7 +5640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -5574,7 +5654,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5588,7 +5668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -5608,7 +5688,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -5622,7 +5702,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>39</v>
       </c>
@@ -5636,7 +5716,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -5650,7 +5730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -5670,7 +5750,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>221</v>
       </c>
@@ -5690,7 +5770,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -5710,7 +5790,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5724,7 +5804,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>304</v>
       </c>
@@ -5744,7 +5824,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -5758,7 +5838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>42</v>
       </c>
@@ -5772,7 +5852,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -5786,7 +5866,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -5800,7 +5880,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>306</v>
       </c>
@@ -5820,7 +5900,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -5834,7 +5914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>42</v>
       </c>
@@ -5848,7 +5928,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -5862,7 +5942,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -5882,7 +5962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>42</v>
       </c>
@@ -5914,18 +5994,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5945,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5965,7 +6045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -5979,7 +6059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -5993,7 +6073,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -6007,7 +6087,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>323</v>
       </c>
@@ -6024,7 +6104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -6044,7 +6124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6058,7 +6138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>306</v>
       </c>
@@ -6078,7 +6158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -6098,7 +6178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>42</v>
       </c>
@@ -6112,7 +6192,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6126,7 +6206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -6146,7 +6226,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -6166,7 +6246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>42</v>
       </c>
@@ -6180,7 +6260,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -6194,7 +6274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -6208,7 +6288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -6222,7 +6302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -6236,7 +6316,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -6263,21 +6343,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:C50"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6297,7 +6377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -6317,7 +6397,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6331,7 +6411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6351,7 +6431,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>42</v>
       </c>
@@ -6365,7 +6445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6379,7 +6459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6393,7 +6473,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>269</v>
       </c>
@@ -6413,7 +6493,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6427,7 +6507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -6441,7 +6521,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -6455,7 +6535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -6469,7 +6549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -6489,7 +6569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6503,7 +6583,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -6523,7 +6603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -6537,7 +6617,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>280</v>
       </c>
@@ -6557,7 +6637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6571,7 +6651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6585,7 +6665,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>258</v>
       </c>
@@ -6605,7 +6685,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>12</v>
       </c>
@@ -6619,7 +6699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -6633,7 +6713,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -6647,7 +6727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -6661,7 +6741,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -6675,7 +6755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6695,7 +6775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -6709,7 +6789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>12</v>
       </c>
@@ -6723,7 +6803,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -6737,7 +6817,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6751,7 +6831,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -6771,7 +6851,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -6785,7 +6865,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -6805,7 +6885,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>42</v>
       </c>
@@ -6819,7 +6899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -6833,7 +6913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -6847,7 +6927,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>300</v>
       </c>
@@ -6867,7 +6947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -6881,7 +6961,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>306</v>
       </c>
@@ -6901,7 +6981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6921,7 +7001,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>42</v>
       </c>
@@ -6935,7 +7015,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -6949,7 +7029,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -6963,7 +7043,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>316</v>
       </c>
@@ -6983,7 +7063,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -6997,7 +7077,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>16</v>
       </c>
@@ -7011,7 +7091,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>322</v>
       </c>
@@ -7031,7 +7111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -7045,7 +7125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>11</v>
       </c>
@@ -7059,7 +7139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>324</v>
       </c>
@@ -7079,7 +7159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>325</v>
       </c>
@@ -7093,7 +7173,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>325</v>
       </c>
@@ -7119,23 +7199,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" activeCellId="6" sqref="E5 E12 E15 E61 E65 E68 E71"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7155,7 +7235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -7175,7 +7255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7189,7 +7269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7203,7 +7283,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7217,7 +7297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -7237,7 +7317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7251,7 +7331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -7265,7 +7345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -7279,7 +7359,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -7293,7 +7373,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -7307,7 +7387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>275</v>
       </c>
@@ -7327,7 +7407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -7341,7 +7421,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -7361,7 +7441,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -7375,7 +7455,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7389,7 +7469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -7403,7 +7483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -7417,7 +7497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -7437,7 +7517,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -7451,7 +7531,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -7465,7 +7545,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -7479,7 +7559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -7493,7 +7573,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -7507,7 +7587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -7527,7 +7607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -7541,7 +7621,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -7555,7 +7635,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -7569,7 +7649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>16</v>
       </c>
@@ -7583,7 +7663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>17</v>
       </c>
@@ -7597,7 +7677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>350</v>
       </c>
@@ -7614,7 +7694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>352</v>
       </c>
@@ -7625,7 +7705,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>353</v>
       </c>
@@ -7645,7 +7725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -7659,21 +7739,21 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="s">
+        <v>396</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>356</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>17</v>
       </c>
@@ -7687,7 +7767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>258</v>
       </c>
@@ -7698,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -7707,7 +7787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -7721,21 +7801,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
+        <v>358</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>359</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -7749,7 +7829,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -7763,7 +7843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -7774,7 +7854,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -7783,7 +7863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -7797,12 +7877,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -7811,21 +7891,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
         <v>363</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -7839,7 +7919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -7853,7 +7933,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -7867,7 +7947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>221</v>
       </c>
@@ -7878,7 +7958,7 @@
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -7887,26 +7967,26 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>42</v>
       </c>
       <c r="D60" t="s">
+        <v>365</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>366</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -7915,9 +7995,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -7926,7 +8006,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -7935,12 +8015,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -7949,23 +8029,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>374</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -7983,21 +8063,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>306</v>
       </c>
@@ -8008,7 +8088,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -8017,7 +8097,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -8031,7 +8111,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -8042,7 +8122,7 @@
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -8051,12 +8131,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -8065,12 +8145,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -8079,23 +8159,23 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
+        <v>379</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
         <v>380</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>381</v>
       </c>
       <c r="D77" t="s">
         <v>348</v>
@@ -8107,7 +8187,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>16</v>
       </c>
@@ -8121,7 +8201,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>17</v>
       </c>
@@ -8132,7 +8212,193 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82" t="s">
+        <v>385</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>277</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>387</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>362</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>380</v>
+      </c>
+      <c r="D87" t="s">
+        <v>286</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>348</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" t="s">
+        <v>371</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>325</v>
+      </c>
+      <c r="D93" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>326</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -8142,27 +8408,502 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B40AAC-2E07-4DF6-83AD-2FFAD7E9B2A9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" activeCellId="7" sqref="E2:E4 E7 E9:E10 E12:E13 E15 E18:E21 E24:E27 E29:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>403</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>326</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8182,7 +8923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -8203,7 +8944,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -8224,7 +8965,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -8245,7 +8986,7 @@
         <v>0.83783783783783783</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -8266,7 +9007,7 @@
         <v>0.51515151515151514</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -8283,11 +9024,11 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F8" si="0">(D6-E6)/D6</f>
+        <f t="shared" ref="F6:F9" si="0">(D6-E6)/D6</f>
         <v>0.70588235294117652</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -8308,79 +9049,100 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.8771929824561403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>0.86567164179104472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <f>SUM(B2:B8)</f>
-        <v>70</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(C2:C8)</f>
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <f>SUM(D2:D8)</f>
-        <v>201</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SUM(E2:E8)</f>
-        <v>53</v>
-      </c>
-      <c r="F9" s="7">
-        <f>(D9-E9)/D9</f>
-        <v>0.73631840796019898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.77272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <f>AVERAGE(B2:B8)</f>
-        <v>10</v>
+        <f>SUM(B2:B9)</f>
+        <v>79</v>
       </c>
       <c r="C10" s="2">
-        <f>AVERAGE(C2:C8)</f>
-        <v>1.4285714285714286</v>
+        <f>SUM(C2:C9)</f>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <f>AVERAGE(D2:D8)</f>
-        <v>28.714285714285715</v>
+        <f>SUM(D2:D9)</f>
+        <v>233</v>
       </c>
       <c r="E10" s="2">
-        <f>AVERAGE(E2:E8)</f>
-        <v>7.5714285714285712</v>
+        <f>SUM(E2:E9)</f>
+        <v>60</v>
       </c>
       <c r="F10" s="7">
         <f>(D10-E10)/D10</f>
-        <v>0.7363184079601991</v>
+        <v>0.74248927038626611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="2">
+        <f>AVERAGE(B2:B9)</f>
+        <v>9.875</v>
+      </c>
+      <c r="C11" s="2">
+        <f>AVERAGE(C2:C9)</f>
+        <v>1.625</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(D2:D9)</f>
+        <v>29.125</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE(E2:E9)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(D11-E11)/D11</f>
+        <v>0.74248927038626611</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F8">
+  <conditionalFormatting sqref="F2:F9">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Soumya-Website/Tennis/WTA Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB86F90-A05F-49DC-9698-B4A98177E68B}"/>
+  <xr:revisionPtr revIDLastSave="984" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAFEFD9C-14C1-4305-B5BB-086515B187EB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="2" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="2021" sheetId="28" r:id="rId6"/>
     <sheet name="2022" sheetId="31" r:id="rId7"/>
     <sheet name="2023" sheetId="34" r:id="rId8"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId9"/>
-    <sheet name="Wins-Losses" sheetId="35" r:id="rId10"/>
-    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId11"/>
+    <sheet name="2024" sheetId="37" r:id="rId9"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
+    <sheet name="Wins-Losses" sheetId="38" r:id="rId11"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="465">
   <si>
     <t>ROUND</t>
   </si>
@@ -870,9 +871,6 @@
     <t>6-2 3-0 RETIRED </t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Misaki Doi (JAPAN)</t>
   </si>
   <si>
@@ -885,12 +883,6 @@
     <t>6-4 2-6 6-2</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
-    <t>Alison Riske (USA)</t>
-  </si>
-  <si>
     <t>7-5 6-4</t>
   </si>
   <si>
@@ -957,9 +949,6 @@
     <t>6-3 7-6(4)</t>
   </si>
   <si>
-    <t>NATIONAL BANK OPEN</t>
-  </si>
-  <si>
     <t>AVERAGE</t>
   </si>
   <si>
@@ -1224,9 +1213,6 @@
     <t>Camila Osorio (COLOMBIA)</t>
   </si>
   <si>
-    <t>Cristina Bucsa (SPAIN)</t>
-  </si>
-  <si>
     <t xml:space="preserve">6-4 7-5 </t>
   </si>
   <si>
@@ -1239,22 +1225,220 @@
     <t>6-3 7-6(1)</t>
   </si>
   <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>6-4 6-7(3) 6-3</t>
+  </si>
+  <si>
+    <t>4-6 6-1 6-2</t>
+  </si>
+  <si>
     <t>3-0 RETIRED</t>
   </si>
   <si>
-    <t>4-6 6-1 6-2</t>
-  </si>
-  <si>
-    <t>MADRID OPEN</t>
-  </si>
-  <si>
-    <t>6-4 6-7(3) 6-3</t>
-  </si>
-  <si>
     <t>Julia Grabher (AUSTRIA)</t>
   </si>
   <si>
     <t>Bernarda Pera (USA)</t>
+  </si>
+  <si>
+    <t>Nastia Pavlyuchenkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-2 6-7(3) 2-2 RETIRED</t>
+  </si>
+  <si>
+    <t>Cristina Bucșa (SPAIN)</t>
+  </si>
+  <si>
+    <t>Xinyu Wang (CHINA)</t>
+  </si>
+  <si>
+    <t>6-2 7-6(7)</t>
+  </si>
+  <si>
+    <t>5-1 RETIRED</t>
+  </si>
+  <si>
+    <t>6-2 5-7 6-4</t>
+  </si>
+  <si>
+    <t>BAD HOMBURG OPEN</t>
+  </si>
+  <si>
+    <t>Withdrew</t>
+  </si>
+  <si>
+    <t>Tatjana Maria (GERMANY)</t>
+  </si>
+  <si>
+    <t>5-7 6-2 6-0</t>
+  </si>
+  <si>
+    <t>Anna Blinkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>Zhu Lin (CHINA)</t>
+  </si>
+  <si>
+    <t>Sara Sorribes Tormo (SPAIN)</t>
+  </si>
+  <si>
+    <t>6-7(4) 7-6(2) 6-3</t>
+  </si>
+  <si>
+    <t>7-5 6-7(5) 6-2</t>
+  </si>
+  <si>
+    <t>WARSAW OPEN</t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Nigina Abduraimova (UZBEKISTAN)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(6)</t>
+  </si>
+  <si>
+    <t>Yanina Wickmayer (BELIUM)</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-2</t>
+  </si>
+  <si>
+    <t>6-1 4-6 6-4</t>
+  </si>
+  <si>
+    <t>6-3 4-6 6-2</t>
+  </si>
+  <si>
+    <t>6-2 6-7(4) 6-4</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-1</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-1</t>
+  </si>
+  <si>
+    <t>7-6(2) 3-6 6-4</t>
+  </si>
+  <si>
+    <t>3-6 6-3 6-1</t>
+  </si>
+  <si>
+    <t>JAPAN OPEN</t>
+  </si>
+  <si>
+    <t>Mai Hontama (JAPAN)</t>
+  </si>
+  <si>
+    <t>6-2 2-6 6-4</t>
+  </si>
+  <si>
+    <t>CHINA OPEN</t>
+  </si>
+  <si>
+    <t>6-7(8) 7-6(5) 6-1</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (FRANCE)</t>
+  </si>
+  <si>
+    <t>Magda Linette (POLAND)</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-0</t>
+  </si>
+  <si>
+    <t>3-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>7-6(8) 6-2</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-4 1-0 RETIRED</t>
+  </si>
+  <si>
+    <t>6-7(7) 6-4 6-4</t>
+  </si>
+  <si>
+    <t>Elise Mertens (BELGIUM)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-3</t>
+  </si>
+  <si>
+    <t>Xiyu Wang (CHINA)</t>
+  </si>
+  <si>
+    <t>4-6 6-0 6-2</t>
+  </si>
+  <si>
+    <t>7-5 4-6 7-6(7)</t>
+  </si>
+  <si>
+    <t>Léolia Jeanjean (FRANCE)</t>
+  </si>
+  <si>
+    <t>Marie Bouzková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(1) 1-6 7-5</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-0 6-7(8) 6-2</t>
+  </si>
+  <si>
+    <t>4-6 6-3 7-5</t>
+  </si>
+  <si>
+    <t>Mirra Andreeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Kamilla Rakhimova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-4 7-6(6)</t>
+  </si>
+  <si>
+    <t>Ena Shibahara (JAPAN)</t>
+  </si>
+  <si>
+    <t>3-6 6-4 6-4</t>
+  </si>
+  <si>
+    <t>7-6(4) 4-6 7-5</t>
+  </si>
+  <si>
+    <t>6-3 6-7(5) 6-1</t>
+  </si>
+  <si>
+    <t>4-6 7-5 6-2</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1527,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1354,6 +1538,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1408,20 +1593,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1" i="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Iga Świątek (POLAND):</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Iga Świątek (POLAND): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1" i="0">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1487,10 +1661,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1515,15 +1689,18 @@
                 <c:pt idx="7">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$9</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1546,14 +1723,17 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-976D-48F0-AD29-333CC7BF5776}"/>
+              <c16:uniqueId val="{00000000-0E15-4F51-B7BC-2E7B7EC20512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1583,10 +1763,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1611,15 +1791,18 @@
                 <c:pt idx="7">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$9</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1642,14 +1825,17 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-976D-48F0-AD29-333CC7BF5776}"/>
+              <c16:uniqueId val="{00000001-0E15-4F51-B7BC-2E7B7EC20512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1663,11 +1849,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1342305455"/>
-        <c:axId val="1342309199"/>
+        <c:axId val="145231024"/>
+        <c:axId val="2038067840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1342305455"/>
+        <c:axId val="145231024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342309199"/>
+        <c:crossAx val="2038067840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1773,7 +1959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1342309199"/>
+        <c:axId val="2038067840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +2065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342305455"/>
+        <c:crossAx val="145231024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1988,14 +2174,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Iga Świątek (POLAND): Winning Percentile Range</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Iga Świątek (POLAND):</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2088,10 +2274,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -2116,15 +2302,18 @@
                 <c:pt idx="7">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$9</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -2147,7 +2336,10 @@
                   <c:v>0.86567164179104472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77272727272727271</c:v>
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84615384615384615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,7 +2347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9FD-4C42-AEF5-578E627E8092}"/>
+              <c16:uniqueId val="{00000000-DA39-4EB7-A842-D0098657ADF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2169,11 +2361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1336548527"/>
-        <c:axId val="1336548111"/>
+        <c:axId val="145231024"/>
+        <c:axId val="2033100208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1336548527"/>
+        <c:axId val="145231024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336548111"/>
+        <c:crossAx val="2033100208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2279,7 +2471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1336548111"/>
+        <c:axId val="2033100208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,7 +2577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336548527"/>
+        <c:crossAx val="145231024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3547,7 +3739,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{369861EB-D729-4817-9BFF-CBADC9E948E1}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F1C77280-EFC5-49AE-8F26-F5B0ABDBC1F4}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3558,7 +3750,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{76A527C7-82A5-42D9-933E-047D9B01B978}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DA00E691-32CF-4B44-B39A-6599D968AFFE}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3572,13 +3764,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FF5486-DF9C-8634-4D46-6FA499777EBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B21403-364E-E0CE-0428-70CEE8FBE6FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3605,13 +3797,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382B60A9-3836-3AEC-EE9C-F429AFA92C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797C7BC8-3774-996F-E463-32BE7934ED3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,9 +3831,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3679,7 +3871,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3785,7 +3977,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3927,7 +4119,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3941,20 +4133,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3994,7 +4186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -4008,7 +4200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -4022,7 +4214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4050,7 +4242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4061,10 +4253,10 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4078,7 +4270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -4098,7 +4290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>21</v>
       </c>
@@ -4112,7 +4304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -4126,7 +4318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -4140,7 +4332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -4154,7 +4346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -4178,6 +4370,301 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(D2-E2)/D2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(D3-E3)/D3</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <f>(D4-E4)/D4</f>
+        <v>0.83783783783783783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <f>(D5-E5)/D5</f>
+        <v>0.51515151515151514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F10" si="0">(D6-E6)/D6</f>
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86567164179104472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>104</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C2:C10)</f>
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(D2:D10)</f>
+        <v>328</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E2:E10)</f>
+        <v>73</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(D11-E11)/D11</f>
+        <v>0.77743902439024393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="2">
+        <f>AVERAGE(B2:B10)</f>
+        <v>11.555555555555555</v>
+      </c>
+      <c r="C12" s="2">
+        <f>AVERAGE(C2:C10)</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="D12" s="2">
+        <f>AVERAGE(D2:D10)</f>
+        <v>36.444444444444443</v>
+      </c>
+      <c r="E12" s="2">
+        <f>AVERAGE(E2:E10)</f>
+        <v>8.1111111111111107</v>
+      </c>
+      <c r="F12" s="7">
+        <f>(D12-E12)/D12</f>
+        <v>0.77743902439024393</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F10">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4189,20 +4676,20 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4222,7 +4709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -4242,7 +4729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -4256,7 +4743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -4270,7 +4757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4284,7 +4771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -4298,7 +4785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -4312,7 +4799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -4326,7 +4813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -4346,7 +4833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -4366,7 +4853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -4380,7 +4867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -4391,10 +4878,10 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -4408,7 +4895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -4423,7 +4910,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4457,21 +4944,21 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4491,7 +4978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4511,7 +4998,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4525,7 +5012,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4539,7 +5026,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>110</v>
       </c>
@@ -4553,7 +5040,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4567,7 +5054,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -4587,7 +5074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -4601,7 +5088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -4615,7 +5102,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>110</v>
       </c>
@@ -4629,7 +5116,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4649,7 +5136,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -4664,7 +5151,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>39</v>
       </c>
@@ -4679,7 +5166,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -4693,7 +5180,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -4707,7 +5194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -4727,7 +5214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -4741,7 +5228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -4755,7 +5242,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -4769,7 +5256,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -4783,7 +5270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4797,7 +5284,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -4811,7 +5298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -4825,7 +5312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -4845,7 +5332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>21</v>
       </c>
@@ -4859,7 +5346,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>39</v>
       </c>
@@ -4873,7 +5360,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -4887,7 +5374,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -4907,7 +5394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -4921,7 +5408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -4935,7 +5422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -4949,7 +5436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -4963,12 +5450,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -4977,7 +5464,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -4991,7 +5478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -5011,7 +5498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -5025,7 +5512,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -5039,7 +5526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>16</v>
       </c>
@@ -5053,7 +5540,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -5073,7 +5560,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -5093,7 +5580,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>11</v>
       </c>
@@ -5107,7 +5594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -5121,7 +5608,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>16</v>
       </c>
@@ -5135,7 +5622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>17</v>
       </c>
@@ -5163,21 +5650,21 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -5217,7 +5704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -5231,7 +5718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -5245,7 +5732,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5265,7 +5752,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -5279,7 +5766,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -5293,7 +5780,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -5307,7 +5794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -5321,9 +5808,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -5338,7 +5825,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -5358,7 +5845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -5372,7 +5859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -5386,7 +5873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -5400,9 +5887,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -5420,7 +5907,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -5434,7 +5921,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -5454,7 +5941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -5468,7 +5955,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -5488,7 +5975,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -5502,7 +5989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5516,7 +6003,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -5530,7 +6017,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -5544,7 +6031,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -5564,7 +6051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -5578,7 +6065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>39</v>
       </c>
@@ -5592,7 +6079,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -5606,7 +6093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -5626,7 +6113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -5640,7 +6127,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -5654,7 +6141,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -5668,7 +6155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -5688,7 +6175,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -5702,7 +6189,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>39</v>
       </c>
@@ -5716,7 +6203,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -5730,7 +6217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -5750,7 +6237,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>221</v>
       </c>
@@ -5770,7 +6257,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -5790,7 +6277,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>11</v>
       </c>
@@ -5804,9 +6291,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -5824,7 +6311,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -5838,7 +6325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>42</v>
       </c>
@@ -5852,7 +6339,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -5866,7 +6353,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>11</v>
       </c>
@@ -5880,9 +6367,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -5900,7 +6387,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>21</v>
       </c>
@@ -5914,7 +6401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>42</v>
       </c>
@@ -5928,7 +6415,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -5942,7 +6429,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -5962,7 +6449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>42</v>
       </c>
@@ -5991,21 +6478,21 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C20" sqref="C20:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6025,7 +6512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -6045,7 +6532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -6059,7 +6546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -6073,7 +6560,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -6087,9 +6574,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -6104,7 +6591,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -6124,7 +6611,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -6138,9 +6625,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -6158,7 +6645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -6178,7 +6665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>42</v>
       </c>
@@ -6192,7 +6679,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6206,7 +6693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -6226,7 +6713,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -6246,7 +6733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>42</v>
       </c>
@@ -6260,12 +6747,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6274,7 +6761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -6288,7 +6775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -6302,7 +6789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -6316,7 +6803,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -6343,21 +6830,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6377,7 +6864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -6397,7 +6884,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6411,7 +6898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6431,7 +6918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>42</v>
       </c>
@@ -6445,7 +6932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6459,7 +6946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6473,7 +6960,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>269</v>
       </c>
@@ -6493,7 +6980,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -6507,7 +6994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -6521,7 +7008,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -6535,7 +7022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -6549,9 +7036,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -6560,7 +7047,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -6569,7 +7056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6583,7 +7070,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -6594,7 +7081,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -6603,23 +7090,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -6628,7 +7115,7 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6637,7 +7124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -6651,7 +7138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -6662,10 +7149,10 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>258</v>
       </c>
@@ -6676,21 +7163,21 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -6699,21 +7186,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -6727,12 +7214,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -6741,7 +7228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -6755,7 +7242,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6775,12 +7262,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -6789,26 +7276,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -6817,21 +7304,21 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -6848,24 +7335,24 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -6882,15 +7369,15 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -6899,12 +7386,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -6913,23 +7400,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>300</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -6938,7 +7425,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -6947,23 +7434,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -6972,7 +7459,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -6981,7 +7468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6992,7 +7479,7 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -7001,51 +7488,51 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -7054,35 +7541,35 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
@@ -7091,9 +7578,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -7102,7 +7589,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -7111,12 +7598,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -7125,7 +7612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>11</v>
       </c>
@@ -7139,18 +7626,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D65" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -7159,32 +7646,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7201,21 +7688,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7235,7 +7722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -7246,7 +7733,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -7255,12 +7742,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7269,7 +7756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7280,10 +7767,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7297,7 +7784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -7308,7 +7795,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -7317,12 +7804,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7331,12 +7818,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -7345,40 +7832,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -7387,9 +7874,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -7398,7 +7885,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7407,7 +7894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -7418,10 +7905,10 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -7438,15 +7925,15 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -7455,12 +7942,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -7469,12 +7956,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -7483,12 +7970,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -7497,9 +7984,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -7508,49 +7995,49 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -7559,7 +8046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -7570,15 +8057,15 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -7587,7 +8074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -7607,7 +8094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -7621,12 +8108,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -7635,12 +8122,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -7649,12 +8136,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -7663,7 +8150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>17</v>
       </c>
@@ -7677,15 +8164,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -7694,9 +8181,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -7705,9 +8192,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -7716,7 +8203,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -7725,40 +8212,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -7767,7 +8254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>258</v>
       </c>
@@ -7778,7 +8265,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -7787,7 +8274,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -7801,26 +8288,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -7829,12 +8316,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -7843,7 +8330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -7854,7 +8341,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -7863,12 +8350,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -7877,12 +8364,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -7891,26 +8378,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -7919,12 +8406,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -7933,12 +8420,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -7947,7 +8434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>221</v>
       </c>
@@ -7958,7 +8445,7 @@
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -7967,26 +8454,26 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -7995,9 +8482,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -8006,7 +8493,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -8015,12 +8502,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -8029,23 +8516,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -8063,23 +8550,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -8088,7 +8575,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -8097,12 +8584,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -8111,7 +8598,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -8122,7 +8609,7 @@
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -8131,12 +8618,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -8145,12 +8632,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -8159,40 +8646,40 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D77" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
@@ -8201,23 +8688,23 @@
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -8232,24 +8719,24 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D82" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>16</v>
       </c>
@@ -8260,26 +8747,26 @@
         <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -8288,21 +8775,21 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
@@ -8311,21 +8798,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>17</v>
       </c>
@@ -8336,21 +8823,21 @@
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
@@ -8359,12 +8846,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D92" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
@@ -8373,12 +8860,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
@@ -8387,18 +8874,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -8412,23 +8899,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" activeCellId="7" sqref="E2:E4 E7 E9:E10 E12:E13 E15 E18:E21 E24:E27 E29:E33"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8448,7 +8935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -8459,21 +8946,21 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8482,12 +8969,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -8496,23 +8983,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -8521,7 +9008,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -8530,26 +9017,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -8558,12 +9045,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -8572,9 +9059,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -8583,7 +9070,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -8592,12 +9079,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -8606,7 +9093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8617,15 +9104,15 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -8634,12 +9121,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -8648,9 +9135,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -8668,26 +9155,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -8696,12 +9183,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -8710,12 +9197,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -8724,9 +9211,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -8735,7 +9222,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -8744,7 +9231,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8755,40 +9242,40 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>400</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -8797,7 +9284,7 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -8806,12 +9293,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -8820,7 +9308,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -8831,15 +9320,16 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -8848,12 +9338,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -8862,18 +9353,785 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>400</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>402</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>403</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>370</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>407</v>
+      </c>
+      <c r="B49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>409</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>411</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>412</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="F52" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>414</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>309</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>417</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>419</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>418</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>421</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>333</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>358</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>327</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>430</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>431</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>433</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" t="s">
+        <v>414</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>435</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>436</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>367</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>391</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>320</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>321</v>
+      </c>
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>321</v>
+      </c>
+      <c r="D92" t="s">
+        <v>283</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" t="s">
+        <v>293</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>322</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>344</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8883,275 +10141,979 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EA0D12-E1A5-4F9B-AD95-26C9D749C4F5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>441</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2016</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <f>(D2-E2)/D2</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>393</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>446</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <f>(D3-E3)/D3</f>
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="D34" t="s">
+        <v>414</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
         <v>37</v>
       </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3">
-        <f>(D4-E4)/D4</f>
-        <v>0.83783783783783783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>370</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="D36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>399</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>313</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>449</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>450</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>451</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>373</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>316</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>435</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>376</v>
+      </c>
+      <c r="D60" t="s">
+        <v>456</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>322</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>457</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s">
+        <v>459</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>400</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>391</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
         <v>33</v>
       </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3">
-        <f>(D5-E5)/D5</f>
-        <v>0.51515151515151514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F9" si="0">(D6-E6)/D6</f>
-        <v>0.70588235294117652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>67</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.86567164179104472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2023</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.77272727272727271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <f>SUM(B2:B9)</f>
-        <v>79</v>
-      </c>
-      <c r="C10" s="2">
-        <f>SUM(C2:C9)</f>
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(D2:D9)</f>
-        <v>233</v>
-      </c>
-      <c r="E10" s="2">
-        <f>SUM(E2:E9)</f>
-        <v>60</v>
-      </c>
-      <c r="F10" s="7">
-        <f>(D10-E10)/D10</f>
-        <v>0.74248927038626611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="2">
-        <f>AVERAGE(B2:B9)</f>
-        <v>9.875</v>
-      </c>
-      <c r="C11" s="2">
-        <f>AVERAGE(C2:C9)</f>
-        <v>1.625</v>
-      </c>
-      <c r="D11" s="2">
-        <f>AVERAGE(D2:D9)</f>
-        <v>29.125</v>
-      </c>
-      <c r="E11" s="2">
-        <f>AVERAGE(E2:E9)</f>
-        <v>7.5</v>
-      </c>
-      <c r="F11" s="7">
-        <f>(D11-E11)/D11</f>
-        <v>0.74248927038626611</v>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>376</v>
+      </c>
+      <c r="D67" t="s">
+        <v>344</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>321</v>
+      </c>
+      <c r="D69" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>328</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="D74" t="s">
+        <v>418</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="D75" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="984" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAFEFD9C-14C1-4305-B5BB-086515B187EB}"/>
+  <xr:revisionPtr revIDLastSave="1066" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1508C2-38E0-4FC8-92A7-877F9E032415}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="2" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="2" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -22,9 +22,8 @@
     <sheet name="2022" sheetId="31" r:id="rId7"/>
     <sheet name="2023" sheetId="34" r:id="rId8"/>
     <sheet name="2024" sheetId="37" r:id="rId9"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
-    <sheet name="Wins-Losses" sheetId="38" r:id="rId11"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId12"/>
+    <sheet name="2025" sheetId="40" r:id="rId10"/>
+    <sheet name="Stats" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="471">
   <si>
     <t>ROUND</t>
   </si>
@@ -1439,6 +1438,24 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>5-7 6-1 7-6(10-8)</t>
+  </si>
+  <si>
+    <t>Kateřina Siniaková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Rebecca Šramková (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>6-7(1) 6-4 6-4</t>
+  </si>
+  <si>
+    <t>7-5 6-0</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1657,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1661,10 +1678,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1692,15 +1709,18 @@
                 <c:pt idx="8">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$10</c:f>
+              <c:f>Stats!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1728,12 +1748,15 @@
                 <c:pt idx="8">
                   <c:v>52</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E15-4F51-B7BC-2E7B7EC20512}"/>
+              <c16:uniqueId val="{00000000-E55C-4286-8B40-2AD6A5612842}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1742,7 +1765,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1763,10 +1786,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1794,15 +1817,18 @@
                 <c:pt idx="8">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$10</c:f>
+              <c:f>Stats!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1830,12 +1856,15 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E15-4F51-B7BC-2E7B7EC20512}"/>
+              <c16:uniqueId val="{00000001-E55C-4286-8B40-2AD6A5612842}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2137,6 +2166,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2225,7 +2259,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2274,10 +2308,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -2305,15 +2339,18 @@
                 <c:pt idx="8">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$10</c:f>
+              <c:f>Stats!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -2341,13 +2378,16 @@
                 <c:pt idx="8">
                   <c:v>0.84615384615384615</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA39-4EB7-A842-D0098657ADF6}"/>
+              <c16:uniqueId val="{00000001-5AF3-47C4-80CC-9DDE2ED5DB4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2649,6 +2689,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3738,45 +3783,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F1C77280-EFC5-49AE-8F26-F5B0ABDBC1F4}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DA00E691-32CF-4B44-B39A-6599D968AFFE}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B21403-364E-E0CE-0428-70CEE8FBE6FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C571BCD7-2554-6BF0-7F55-3B008C19D494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3789,27 +3820,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797C7BC8-3774-996F-E463-32BE7934ED3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F039C751-526B-3CEF-5348-E86A1296CB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3817,17 +3851,13 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4374,14 +4404,261 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CEED84-947D-4952-8121-591D74CE3EAD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" activeCellId="2" sqref="E2:E6 E9:E11 E14:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F10" si="0">(D6-E6)/D6</f>
+        <f t="shared" ref="F6:F11" si="0">(D6-E6)/D6</f>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -4604,57 +4881,78 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <f>SUM(B2:B10)</f>
-        <v>104</v>
-      </c>
-      <c r="C11" s="2">
-        <f>SUM(C2:C10)</f>
-        <v>22</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(D2:D10)</f>
-        <v>328</v>
-      </c>
-      <c r="E11" s="2">
-        <f>SUM(E2:E10)</f>
-        <v>73</v>
-      </c>
-      <c r="F11" s="7">
-        <f>(D11-E11)/D11</f>
-        <v>0.77743902439024393</v>
+      <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>301</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <f>AVERAGE(B2:B10)</f>
-        <v>11.555555555555555</v>
+        <f>SUM(B2:B11)</f>
+        <v>107</v>
       </c>
       <c r="C12" s="2">
-        <f>AVERAGE(C2:C10)</f>
-        <v>2.4444444444444446</v>
+        <f>SUM(C2:C11)</f>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <f>AVERAGE(D2:D10)</f>
-        <v>36.444444444444443</v>
+        <f>SUM(D2:D11)</f>
+        <v>338</v>
       </c>
       <c r="E12" s="2">
-        <f>AVERAGE(E2:E10)</f>
-        <v>8.1111111111111107</v>
+        <f>SUM(E2:E11)</f>
+        <v>76</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.77743902439024393</v>
+        <v>0.7751479289940828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="2">
+        <f>AVERAGE(B2:B11)</f>
+        <v>10.7</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E13" s="2">
+        <f>AVERAGE(E2:E11)</f>
+        <v>7.6</v>
+      </c>
+      <c r="F13" s="7">
+        <f>(D13-E13)/D13</f>
+        <v>0.7751479289940828</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F10">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4665,6 +4963,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4944,7 +5243,7 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -8902,7 +9201,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10147,8 +10446,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1066" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1508C2-38E0-4FC8-92A7-877F9E032415}"/>
+  <xr:revisionPtr revIDLastSave="1123" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91D37BE-5A2E-44C9-9BD6-9FFB946110F1}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="2" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" firstSheet="2" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="476">
   <si>
     <t>ROUND</t>
   </si>
@@ -918,9 +918,6 @@
     <t>6-3 6-7(4) 7-5</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>4-6 6-0 6-1</t>
   </si>
   <si>
@@ -1456,6 +1453,24 @@
   </si>
   <si>
     <t>7-5 6-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-2 6-0 </t>
+  </si>
+  <si>
+    <t>7-6(1) 1-6 6-3</t>
+  </si>
+  <si>
+    <t>Alex Eala (PHILIPPINES)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-1</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-3 3-6 6-2 </t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1764,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,7 +1872,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2379,7 +2394,7 @@
                   <c:v>0.84615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3860,6 +3875,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4283,7 +4302,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4408,15 +4427,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" activeCellId="2" sqref="E2:E6 E9:E11 E14:E15"/>
+      <selection activeCell="E29" activeCellId="5" sqref="E2:E6 E9:E11 E14:E15 E18:E21 E24:E26 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -4455,7 +4474,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4469,7 +4488,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -4483,7 +4502,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -4497,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -4508,10 +4527,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -4531,12 +4550,12 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -4559,21 +4578,21 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -4598,7 +4617,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -4627,21 +4646,193 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>455</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>443</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>359</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -4658,7 +4849,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,10 +4867,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -4885,20 +5076,20 @@
         <v>2025</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4907,7 +5098,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -4915,24 +5106,24 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.7751479289940828</v>
+        <v>0.77167630057803471</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -4940,15 +5131,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>33.799999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.7751479289940828</v>
+        <v>0.77167630057803471</v>
       </c>
     </row>
   </sheetData>
@@ -5177,7 +5368,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5754,7 +5945,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -6109,7 +6300,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -6188,7 +6379,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -6592,7 +6783,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6668,7 +6859,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -6875,7 +7066,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -6926,7 +7117,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -7051,7 +7242,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -7337,7 +7528,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -7405,7 +7596,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -7414,7 +7605,7 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -7462,7 +7653,7 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -7642,13 +7833,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7676,7 +7867,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -7690,7 +7881,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -7704,18 +7895,18 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -7724,7 +7915,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -7738,18 +7929,18 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -7758,7 +7949,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -7778,7 +7969,7 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -7792,13 +7983,13 @@
         <v>42</v>
       </c>
       <c r="D53" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
         <v>306</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7812,7 +8003,7 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7820,18 +8011,18 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -7840,7 +8031,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -7854,13 +8045,13 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
+        <v>313</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>314</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7879,7 +8070,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -7888,7 +8079,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
@@ -7902,7 +8093,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -7927,13 +8118,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D65" t="s">
         <v>288</v>
@@ -7947,24 +8138,24 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" t="s">
         <v>321</v>
-      </c>
-      <c r="D66" t="s">
-        <v>322</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -7987,8 +8178,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8032,7 +8223,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -8046,7 +8237,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8066,7 +8257,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8094,7 +8285,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -8122,7 +8313,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -8136,13 +8327,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>329</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8150,13 +8341,13 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>331</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8164,7 +8355,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -8175,7 +8366,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -8184,7 +8375,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -8204,7 +8395,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8224,7 +8415,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8232,7 +8423,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8246,7 +8437,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -8285,7 +8476,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -8294,13 +8485,13 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
         <v>336</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8308,13 +8499,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
+        <v>337</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
         <v>338</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8322,13 +8513,13 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
         <v>340</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8356,7 +8547,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8426,7 +8617,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -8440,7 +8631,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -8465,13 +8656,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -8482,7 +8673,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -8493,7 +8684,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -8502,7 +8693,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -8516,7 +8707,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -8530,13 +8721,13 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8544,7 +8735,7 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -8564,7 +8755,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -8592,13 +8783,13 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
+        <v>353</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>354</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8606,7 +8797,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -8620,7 +8811,7 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -8640,7 +8831,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -8654,7 +8845,7 @@
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -8668,7 +8859,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -8682,13 +8873,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
+        <v>357</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
         <v>358</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8696,7 +8887,7 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -8710,7 +8901,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -8744,7 +8935,7 @@
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -8758,13 +8949,13 @@
         <v>42</v>
       </c>
       <c r="D60" t="s">
+        <v>360</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>361</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8772,7 +8963,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -8783,7 +8974,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -8792,7 +8983,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -8806,7 +8997,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -8820,18 +9011,18 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -8854,18 +9045,18 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -8874,7 +9065,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -8908,7 +9099,7 @@
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -8922,7 +9113,7 @@
         <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
@@ -8936,7 +9127,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -8950,27 +9141,27 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D77" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -8978,7 +9169,7 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
@@ -8992,18 +9183,18 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -9018,15 +9209,15 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>13</v>
@@ -9046,7 +9237,7 @@
         <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9060,12 +9251,12 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -9074,18 +9265,18 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D87" t="s">
         <v>283</v>
@@ -9102,13 +9293,13 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -9122,21 +9313,21 @@
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
@@ -9147,10 +9338,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
@@ -9161,7 +9352,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s">
         <v>283</v>
@@ -9178,13 +9369,13 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -9200,8 +9391,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9245,13 +9436,13 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9259,7 +9450,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -9273,7 +9464,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -9287,7 +9478,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -9298,7 +9489,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -9307,7 +9498,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -9321,13 +9512,13 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9335,7 +9526,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -9349,7 +9540,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -9360,7 +9551,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -9369,7 +9560,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -9383,7 +9574,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -9403,7 +9594,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9436,7 +9627,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -9459,13 +9650,13 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9473,7 +9664,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -9487,7 +9678,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -9501,7 +9692,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -9512,7 +9703,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -9521,7 +9712,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -9541,7 +9732,7 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9549,13 +9740,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9563,7 +9754,7 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -9574,7 +9765,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -9583,7 +9774,7 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -9598,7 +9789,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9619,7 +9810,7 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9628,7 +9819,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -9643,7 +9834,7 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -9658,7 +9849,7 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -9678,7 +9869,7 @@
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -9692,7 +9883,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -9720,13 +9911,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9740,7 +9931,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -9768,7 +9959,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -9782,13 +9973,13 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9810,13 +10001,13 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9830,12 +10021,12 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s">
         <v>211</v>
@@ -9844,13 +10035,13 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
         <v>409</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9872,7 +10063,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -9886,13 +10077,13 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9906,7 +10097,7 @@
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
@@ -9920,7 +10111,7 @@
         <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -9934,7 +10125,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -9948,13 +10139,13 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9968,12 +10159,12 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -9982,7 +10173,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -10010,7 +10201,7 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
@@ -10024,13 +10215,13 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -10049,7 +10240,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -10064,7 +10255,7 @@
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -10078,7 +10269,7 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -10086,13 +10277,13 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10100,18 +10291,18 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -10120,7 +10311,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
@@ -10134,13 +10325,13 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -10154,7 +10345,7 @@
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -10168,7 +10359,7 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -10196,7 +10387,7 @@
         <v>42</v>
       </c>
       <c r="D77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>13</v>
@@ -10230,12 +10421,12 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -10244,7 +10435,7 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>13</v>
@@ -10258,18 +10449,18 @@
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
@@ -10278,7 +10469,7 @@
         <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
@@ -10292,7 +10483,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
@@ -10306,7 +10497,7 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
@@ -10320,13 +10511,13 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -10348,7 +10539,7 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>13</v>
@@ -10359,13 +10550,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D91" t="s">
         <v>260</v>
@@ -10374,12 +10565,12 @@
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D92" t="s">
         <v>283</v>
@@ -10393,10 +10584,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
@@ -10410,7 +10601,7 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>13</v>
@@ -10424,7 +10615,7 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
@@ -10446,8 +10637,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10497,7 +10688,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10505,7 +10696,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -10519,18 +10710,18 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -10539,7 +10730,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -10587,7 +10778,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10595,18 +10786,18 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -10615,7 +10806,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -10643,7 +10834,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -10657,7 +10848,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -10668,7 +10859,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -10677,7 +10868,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -10691,7 +10882,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -10705,7 +10896,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -10725,7 +10916,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10781,13 +10972,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10806,7 +10997,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -10815,7 +11006,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -10829,13 +11020,13 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10843,18 +11034,18 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -10863,7 +11054,7 @@
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -10877,7 +11068,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -10891,7 +11082,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -10905,13 +11096,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10933,13 +11124,13 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10953,7 +11144,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -10967,7 +11158,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -10981,7 +11172,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -11023,7 +11214,7 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -11043,7 +11234,7 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -11063,7 +11254,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -11071,7 +11262,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -11085,7 +11276,7 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -11096,7 +11287,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D50" t="s">
         <v>260</v>
@@ -11127,7 +11318,7 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -11161,7 +11352,7 @@
         <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -11175,18 +11366,18 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -11195,13 +11386,13 @@
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -11220,16 +11411,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11237,7 +11428,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -11257,13 +11448,13 @@
         <v>40</v>
       </c>
       <c r="D63" t="s">
+        <v>456</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
         <v>457</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -11271,7 +11462,7 @@
         <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -11285,7 +11476,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -11299,7 +11490,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -11310,10 +11501,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -11324,16 +11515,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
@@ -11344,7 +11535,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D70" t="s">
         <v>276</v>
@@ -11353,12 +11544,12 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D71" t="s">
         <v>283</v>
@@ -11372,43 +11563,43 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="D74" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="D75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1123" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91D37BE-5A2E-44C9-9BD6-9FFB946110F1}"/>
+  <xr:revisionPtr revIDLastSave="1231" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03B62C4-5F09-4D76-9BEA-7F0558117DB0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" firstSheet="2" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="491">
   <si>
     <t>ROUND</t>
   </si>
@@ -1471,6 +1471,51 @@
   </si>
   <si>
     <t xml:space="preserve">6-3 3-6 6-2 </t>
+  </si>
+  <si>
+    <t>0-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>6-0 6-7(3) 6-4</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>Diana Shnaider (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-1 7-5</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>Jaqueline Cristian ROMANIA)</t>
+  </si>
+  <si>
+    <t>1-6 6-3 7-5</t>
+  </si>
+  <si>
+    <t>7-6(1) 4-6 6-0</t>
+  </si>
+  <si>
+    <t>6-4 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-0, 6-0</t>
+  </si>
+  <si>
+    <t>Polina Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>5-7 6-2 6-1</t>
+  </si>
+  <si>
+    <t>6-2  7-5</t>
+  </si>
+  <si>
+    <t>Amanda Anisimova (USA)</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1809,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,7 +1917,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,7 +2439,7 @@
                   <c:v>0.84615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.73684210526315785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3875,10 +3920,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4427,10 +4468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" activeCellId="5" sqref="E2:E6 E9:E11 E14:E15 E18:E21 E24:E26 E29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" activeCellId="9" sqref="E7 E12 E16 E22 E27 E30 E36 E39 E46 E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4835,6 +4876,377 @@
         <v>475</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>472</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>417</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>479</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="C35" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>481</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>332</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>466</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>482</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>406</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>375</v>
+      </c>
+      <c r="D49" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>372</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>343</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>487</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>380</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>337</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>308</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>490</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4849,7 +5261,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5076,20 +5488,20 @@
         <v>2025</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.73684210526315785</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5098,23 +5510,23 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.77167630057803471</v>
+        <v>0.77322404371584696</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5123,23 +5535,23 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>34.6</v>
+        <v>36.6</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>7.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.77167630057803471</v>
+        <v>0.77322404371584696</v>
       </c>
     </row>
   </sheetData>
@@ -8178,8 +8590,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9391,8 +9803,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10637,8 +11049,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1231" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03B62C4-5F09-4D76-9BEA-7F0558117DB0}"/>
+  <xr:revisionPtr revIDLastSave="1289" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614F76E4-C028-4818-BC96-841888334CF5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="23" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="495">
   <si>
     <t>ROUND</t>
   </si>
@@ -1516,6 +1516,18 @@
   </si>
   <si>
     <t>Amanda Anisimova (USA)</t>
+  </si>
+  <si>
+    <t>Guo Hanyu (CHINA)</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-3</t>
+  </si>
+  <si>
+    <t>Emiliana Arango (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>Suzan Lamens (NETHERLANDS)</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1821,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1929,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2451,7 @@
                   <c:v>0.84615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73684210526315785</c:v>
+                  <c:v>0.75510204081632648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,6 +3932,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4468,10 +4484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" activeCellId="9" sqref="E7 E12 E16 E22 E27 E30 E36 E39 E46 E51"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" activeCellId="13" sqref="A2 A9 A14 A18 A24 A29 A32 A38 A41 A48 A53 A61 A65 A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,6 +5263,220 @@
         <v>486</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>491</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>349</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>337</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>450</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68" t="s">
+        <v>440</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>313</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>372</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>493</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>494</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>440</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>375</v>
+      </c>
+      <c r="D76" t="s">
+        <v>490</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5261,7 +5491,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5488,20 +5718,20 @@
         <v>2025</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.73684210526315785</v>
+        <v>0.75510204081632648</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5510,23 +5740,23 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.77322404371584696</v>
+        <v>0.77453580901856767</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5535,23 +5765,23 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>36.6</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.77322404371584696</v>
+        <v>0.77453580901856767</v>
       </c>
     </row>
   </sheetData>
@@ -11049,8 +11279,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Iga Świątek.xlsx
+++ b/Tennis/WTA Tour/Iga Świątek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1289" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614F76E4-C028-4818-BC96-841888334CF5}"/>
+  <xr:revisionPtr revIDLastSave="1307" documentId="13_ncr:1_{FD6336D4-9F79-4B03-8AF6-CC2F75EE1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75D8128B-AFA2-4B80-AA67-296D068D7576}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="499">
   <si>
     <t>ROUND</t>
   </si>
@@ -1528,6 +1528,18 @@
   </si>
   <si>
     <t>Suzan Lamens (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>KOREA OPEN</t>
+  </si>
+  <si>
+    <t>Maya Joint (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-3 6-2 </t>
+  </si>
+  <si>
+    <t>1-6 7-6(3) 7-5</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1833,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,7 +2463,7 @@
                   <c:v>0.84615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75510204081632648</c:v>
+                  <c:v>0.77358490566037741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4484,10 +4496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" activeCellId="13" sqref="A2 A9 A14 A18 A24 A29 A32 A38 A41 A48 A53 A61 A65 A72"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" activeCellId="11" sqref="E7 E12 E16 E22 E27 E30 E36 E39 E46 E51 E63 E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5477,6 +5489,68 @@
         <v>22</v>
       </c>
     </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>495</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>496</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5491,7 +5565,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5718,20 +5792,20 @@
         <v>2025</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>12</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.75510204081632648</v>
+        <v>0.77358490566037741</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5740,15 +5814,15 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
@@ -5756,7 +5830,7 @@
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.77453580901856767</v>
+        <v>0.7769028871391076</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,15 +5839,15 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>37.700000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
@@ -5781,7 +5855,7 @@
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.77453580901856767</v>
+        <v>0.7769028871391076</v>
       </c>
     </row>
   </sheetData>
@@ -11279,8 +11353,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
